--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F95C7A-284C-4831-9669-7E8FC64D881C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6EA921-0475-4259-A149-A84429F0BE89}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -123,7 +123,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,8 +136,14 @@
         <bgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF1E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -158,58 +164,6 @@
       <bottom style="thin">
         <color rgb="FFD9D9D9"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -270,352 +224,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD9D9D9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -624,35 +242,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -663,92 +273,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,8 +287,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE1A16C"/>
       <color rgb="FFD9D9D9"/>
-      <color rgb="FFE1A16C"/>
+      <color rgb="FFFEF1E6"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1070,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,14 +616,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1116,171 +646,178 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="16">
         <v>42887</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="31">
+      <c r="B3" s="5"/>
+      <c r="C3" s="17">
         <v>10000</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="32">
+      <c r="D3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="10">
         <v>10000</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="16">
         <v>42887</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34">
+      <c r="B4" s="5"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17">
         <v>50</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="10">
         <v>9950</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="16">
         <v>42891</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="36">
+      <c r="B5" s="5"/>
+      <c r="C5" s="17">
         <v>200</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37">
+      <c r="D5" s="17"/>
+      <c r="E5" s="10">
         <v>10150</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="16">
         <v>42894</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="38">
+      <c r="B6" s="5"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17">
         <v>150</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="10">
         <v>10000</v>
       </c>
-      <c r="F6" s="33"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="16">
         <v>42899</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="36">
+      <c r="B7" s="5"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17">
         <v>600</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="10">
         <v>9400</v>
       </c>
-      <c r="F7" s="33"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="16">
         <v>42902</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="31">
+      <c r="B8" s="5"/>
+      <c r="C8" s="17">
         <v>500</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32">
+      <c r="D8" s="17"/>
+      <c r="E8" s="10">
         <v>9900</v>
       </c>
-      <c r="F8" s="33"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="16">
         <v>42906</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="34">
+      <c r="B9" s="5"/>
+      <c r="C9" s="17">
         <v>250</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="41">
+      <c r="D9" s="17"/>
+      <c r="E9" s="10">
         <v>10150</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="16">
         <v>42907</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36">
+      <c r="B10" s="5"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17">
         <v>40</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="10">
         <v>10110</v>
       </c>
-      <c r="F10" s="33"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="16">
         <v>42911</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="38">
+      <c r="B11" s="5"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17">
         <v>175</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="10">
         <v>9935</v>
       </c>
-      <c r="F11" s="33"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="16">
         <v>42913</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="36">
+      <c r="B12" s="5"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17">
         <v>600</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="10">
         <v>9335</v>
       </c>
-      <c r="F12" s="33"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="16">
         <v>42916</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31">
+      <c r="B13" s="5"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17">
         <v>700</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="10">
         <v>8635</v>
       </c>
-      <c r="F13" s="33"/>
-    </row>
-    <row r="14" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11"/>
+    </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1303,97 +840,104 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="A17" s="16">
         <v>42892</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="31">
+      <c r="B17" s="5"/>
+      <c r="C17" s="17">
         <v>250</v>
       </c>
-      <c r="D17" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="32">
+      <c r="D17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="10">
         <v>250</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="16">
         <v>42895</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="34">
+      <c r="B18" s="5"/>
+      <c r="C18" s="17">
         <v>450</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="41">
+      <c r="D18" s="17"/>
+      <c r="E18" s="10">
         <v>700</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="16">
         <v>42906</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36">
+      <c r="B19" s="5"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17">
         <v>250</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="10">
         <v>450</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="16">
         <v>42910</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="31">
+      <c r="B20" s="5"/>
+      <c r="C20" s="17">
         <v>750</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="39">
+      <c r="D20" s="17"/>
+      <c r="E20" s="10">
         <v>1200</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="A21" s="16">
         <v>42915</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="40">
+      <c r="B21" s="5"/>
+      <c r="C21" s="17">
         <v>1600</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="45">
+      <c r="D21" s="17"/>
+      <c r="E21" s="10">
         <v>2800</v>
       </c>
-      <c r="F21" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="F21" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="11"/>
+    </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1416,97 +960,104 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="16">
         <v>42888</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="31">
+      <c r="B25" s="5"/>
+      <c r="C25" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="17">
         <v>150</v>
       </c>
-      <c r="E25" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="33">
+      <c r="E25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="17">
         <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+      <c r="A26" s="16">
         <v>42894</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="34">
+      <c r="B26" s="5"/>
+      <c r="C26" s="17">
         <v>150</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="43">
+      <c r="D26" s="17"/>
+      <c r="E26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+      <c r="A27" s="16">
         <v>42896</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="36">
+      <c r="B27" s="5"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17">
         <v>40</v>
       </c>
-      <c r="E27" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="40">
+      <c r="E27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="17">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+      <c r="A28" s="16">
         <v>42903</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="31">
+      <c r="B28" s="5"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17">
         <v>30</v>
       </c>
-      <c r="E28" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="44">
+      <c r="E28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="17">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="A29" s="16">
         <v>42907</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="46">
+      <c r="B29" s="5"/>
+      <c r="C29" s="17">
         <v>40</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="40">
+      <c r="D29" s="17"/>
+      <c r="E29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="17">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11"/>
+    </row>
     <row r="31" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1529,57 +1080,64 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
+      <c r="A33" s="16">
         <v>42887</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="31">
+      <c r="B33" s="5"/>
+      <c r="C33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="17">
         <v>10000</v>
       </c>
-      <c r="E33" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="33">
+      <c r="E33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="17">
         <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="51"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="51"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51"/>
-    </row>
-    <row r="37" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11"/>
+    </row>
     <row r="38" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -1602,111 +1160,118 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="A40" s="16">
         <v>42916</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="33">
+      <c r="B40" s="5"/>
+      <c r="C40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="17">
         <v>3750</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+      <c r="A41" s="16">
         <v>42916</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="52">
+      <c r="B41" s="5"/>
+      <c r="C41" s="10">
         <v>1200</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="43">
+      <c r="D41" s="17"/>
+      <c r="E41" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="17">
         <v>2550</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
+      <c r="A42" s="16">
         <v>42916</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="45">
+      <c r="B42" s="5"/>
+      <c r="C42" s="10">
         <v>220</v>
       </c>
-      <c r="D42" s="46"/>
-      <c r="E42" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="40">
+      <c r="D42" s="17"/>
+      <c r="E42" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="17">
         <v>2330</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
+      <c r="A43" s="16">
         <v>42916</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="52">
+      <c r="B43" s="5"/>
+      <c r="C43" s="10">
         <v>175</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="44">
+      <c r="D43" s="17"/>
+      <c r="E43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="17">
         <v>2155</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
+      <c r="A44" s="16">
         <v>42916</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="45">
+      <c r="B44" s="5"/>
+      <c r="C44" s="10">
         <v>50</v>
       </c>
-      <c r="D44" s="46"/>
-      <c r="E44" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="40">
+      <c r="D44" s="17"/>
+      <c r="E44" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="17">
         <v>2105</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
+      <c r="A45" s="16">
         <v>42916</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="47">
+      <c r="B45" s="5"/>
+      <c r="C45" s="10">
         <v>700</v>
       </c>
-      <c r="D45" s="53"/>
-      <c r="E45" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="33">
+      <c r="D45" s="17"/>
+      <c r="E45" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="17">
         <v>1405</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="11"/>
+    </row>
     <row r="47" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="27"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="15"/>
     </row>
     <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -1729,49 +1294,56 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15">
+      <c r="A49" s="16">
         <v>42916</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="47">
+      <c r="B49" s="5"/>
+      <c r="C49" s="10">
         <v>700</v>
       </c>
-      <c r="D49" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="32">
+      <c r="D49" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="10">
         <v>700</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F49" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18">
+      <c r="A50" s="16">
         <v>42916</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="42">
+      <c r="B50" s="5"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="17">
         <v>700</v>
       </c>
-      <c r="E50" s="54">
+      <c r="E50" s="10">
         <v>0</v>
       </c>
-      <c r="F50" s="42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="F50" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="11"/>
+    </row>
     <row r="52" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="27"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="15"/>
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1794,127 +1366,134 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15">
+      <c r="A54" s="16">
         <v>42891</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="47">
+      <c r="B54" s="5"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="10">
         <v>200</v>
       </c>
-      <c r="E54" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="33">
+      <c r="E54" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="17">
         <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="19">
+      <c r="A55" s="16">
         <v>42892</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="52">
+      <c r="B55" s="5"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="10">
         <v>250</v>
       </c>
-      <c r="E55" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="44">
+      <c r="E55" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="17">
         <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
+      <c r="A56" s="16">
         <v>42895</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="45">
+      <c r="B56" s="5"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="10">
         <v>450</v>
       </c>
-      <c r="E56" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="40">
+      <c r="E56" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="17">
         <v>900</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="20">
+      <c r="A57" s="16">
         <v>42902</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="52">
+      <c r="B57" s="5"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="10">
         <v>500</v>
       </c>
-      <c r="E57" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="44">
+      <c r="E57" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="17">
         <v>1400</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14">
+      <c r="A58" s="16">
         <v>42910</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="45">
+      <c r="B58" s="5"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="10">
         <v>750</v>
       </c>
-      <c r="E58" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="40">
+      <c r="E58" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="17">
         <v>2150</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15">
+      <c r="A59" s="16">
         <v>42915</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="47">
+      <c r="B59" s="5"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="10">
         <v>1600</v>
       </c>
-      <c r="E59" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="33">
+      <c r="E59" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="17">
         <v>3750</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15">
+      <c r="A60" s="16">
         <v>42916</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="33">
+      <c r="B60" s="5"/>
+      <c r="C60" s="17">
         <v>3750</v>
       </c>
-      <c r="D60" s="47"/>
-      <c r="E60" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="33">
+      <c r="D60" s="10"/>
+      <c r="E60" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="11"/>
+    </row>
     <row r="62" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="27"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="15"/>
     </row>
     <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
@@ -1937,65 +1516,72 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15">
+      <c r="A64" s="16">
         <v>42899</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="33">
+      <c r="B64" s="5"/>
+      <c r="C64" s="17">
         <v>600</v>
       </c>
-      <c r="D64" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="32">
+      <c r="D64" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="10">
         <v>600</v>
       </c>
-      <c r="F64" s="33" t="s">
+      <c r="F64" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="19">
+      <c r="A65" s="16">
         <v>42913</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="44">
+      <c r="B65" s="5"/>
+      <c r="C65" s="17">
         <v>600</v>
       </c>
-      <c r="D65" s="43"/>
-      <c r="E65" s="41">
+      <c r="D65" s="17"/>
+      <c r="E65" s="10">
         <v>1200</v>
       </c>
-      <c r="F65" s="43" t="s">
+      <c r="F65" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14">
+      <c r="A66" s="16">
         <v>42916</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="42">
+      <c r="B66" s="5"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17">
         <v>1200</v>
       </c>
-      <c r="E66" s="37">
+      <c r="E66" s="10">
         <v>0</v>
       </c>
-      <c r="F66" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="F66" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="11"/>
+    </row>
     <row r="68" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="27"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="15"/>
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -2018,206 +1604,236 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="15">
+      <c r="A70" s="16">
         <v>42888</v>
       </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="47">
+      <c r="B70" s="5"/>
+      <c r="C70" s="10">
         <v>150</v>
       </c>
-      <c r="D70" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="32">
+      <c r="D70" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="10">
         <v>150</v>
       </c>
-      <c r="F70" s="56"/>
+      <c r="F70" s="9"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="19">
+      <c r="A71" s="16">
         <v>42896</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="52">
+      <c r="B71" s="5"/>
+      <c r="C71" s="10">
         <v>40</v>
       </c>
-      <c r="D71" s="44"/>
-      <c r="E71" s="41">
+      <c r="D71" s="17"/>
+      <c r="E71" s="10">
         <v>190</v>
       </c>
-      <c r="F71" s="51"/>
+      <c r="F71" s="9"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14">
+      <c r="A72" s="16">
         <v>42903</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="45">
+      <c r="B72" s="5"/>
+      <c r="C72" s="10">
         <v>30</v>
       </c>
-      <c r="D72" s="40"/>
-      <c r="E72" s="37">
+      <c r="D72" s="17"/>
+      <c r="E72" s="10">
         <v>220</v>
       </c>
-      <c r="F72" s="51"/>
+      <c r="F72" s="9"/>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="22">
+      <c r="A73" s="16">
         <v>42916</v>
       </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="40">
+      <c r="B73" s="5"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="17">
         <v>220</v>
       </c>
-      <c r="E73" s="37">
+      <c r="E73" s="10">
         <v>0</v>
       </c>
-      <c r="F73" s="51"/>
-    </row>
-    <row r="74" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="28" t="s">
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="11"/>
+    </row>
+    <row r="75" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="30"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="15"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="4" t="s">
+      <c r="C76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23">
+      <c r="A77" s="16">
         <v>42911</v>
       </c>
-      <c r="B77" s="24"/>
-      <c r="C77" s="57">
+      <c r="B77" s="5"/>
+      <c r="C77" s="10">
         <v>175</v>
       </c>
-      <c r="D77" s="58"/>
-      <c r="E77" s="57">
+      <c r="D77" s="17"/>
+      <c r="E77" s="10">
         <v>175</v>
       </c>
-      <c r="F77" s="33" t="s">
+      <c r="F77" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="18">
+      <c r="A78" s="16">
         <v>42916</v>
       </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="47"/>
-      <c r="D78" s="42">
+      <c r="B78" s="5"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="17">
         <v>175</v>
       </c>
-      <c r="E78" s="59">
+      <c r="E78" s="10">
         <v>0</v>
       </c>
-      <c r="F78" s="42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="28" t="s">
+      <c r="F78" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="11"/>
+    </row>
+    <row r="80" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="30"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="15"/>
     </row>
     <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="3" t="s">
+      <c r="C81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="23">
+      <c r="A82" s="16">
         <v>42887</v>
       </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="57">
+      <c r="B82" s="5"/>
+      <c r="C82" s="10">
         <v>50</v>
       </c>
-      <c r="D82" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82" s="57">
+      <c r="D82" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="10">
         <v>50</v>
       </c>
-      <c r="F82" s="33" t="s">
+      <c r="F82" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="19">
+      <c r="A83" s="16">
         <v>42916</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="55">
+      <c r="B83" s="5"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="17">
         <v>50</v>
       </c>
-      <c r="E83" s="41">
+      <c r="E83" s="10">
         <v>0</v>
       </c>
-      <c r="F83" s="43" t="s">
+      <c r="F83" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14">
+      <c r="A84" s="16">
         <v>42938</v>
       </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="45">
+      <c r="B84" s="5"/>
+      <c r="C84" s="10">
         <v>20</v>
       </c>
-      <c r="D84" s="40"/>
-      <c r="E84" s="45">
+      <c r="D84" s="17"/>
+      <c r="E84" s="10">
         <v>20</v>
       </c>
-      <c r="F84" s="40" t="s">
-        <v>15</v>
-      </c>
+      <c r="F84" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="11"/>
+    </row>
+    <row r="86" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_A_Sheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6EA921-0475-4259-A149-A84429F0BE89}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17EB568-2849-41A5-8A17-9E52B83731DE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,7 +89,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,20 +105,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -228,37 +221,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -273,11 +239,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,7 +600,7 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,1238 +613,1238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="C2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="10">
         <v>42887</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="17">
+      <c r="B3" s="9"/>
+      <c r="C3" s="12">
         <v>10000</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="11">
         <v>10000</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="10">
         <v>42887</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17">
+      <c r="B4" s="9"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12">
         <v>50</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>9950</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="10">
         <v>42891</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="17">
+      <c r="B5" s="9"/>
+      <c r="C5" s="12">
         <v>200</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="10">
+      <c r="D5" s="12"/>
+      <c r="E5" s="11">
         <v>10150</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="10">
         <v>42894</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17">
+      <c r="B6" s="9"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12">
         <v>150</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="11">
         <v>10000</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="10">
         <v>42899</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17">
+      <c r="B7" s="9"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12">
         <v>600</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="11">
         <v>9400</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="10">
         <v>42902</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="17">
+      <c r="B8" s="9"/>
+      <c r="C8" s="12">
         <v>500</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="10">
+      <c r="D8" s="12"/>
+      <c r="E8" s="11">
         <v>9900</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="10">
         <v>42906</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="17">
+      <c r="B9" s="9"/>
+      <c r="C9" s="12">
         <v>250</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="10">
+      <c r="D9" s="12"/>
+      <c r="E9" s="11">
         <v>10150</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="10">
         <v>42907</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17">
+      <c r="B10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12">
         <v>40</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="11">
         <v>10110</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="10">
         <v>42911</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17">
+      <c r="B11" s="9"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12">
         <v>175</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="11">
         <v>9935</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="10">
         <v>42913</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17">
+      <c r="B12" s="9"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12">
         <v>600</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="11">
         <v>9335</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="10">
         <v>42916</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17">
+      <c r="B13" s="9"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12">
         <v>700</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="11">
         <v>8635</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="11"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="C16" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="10">
         <v>42892</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="17">
+      <c r="B17" s="9"/>
+      <c r="C17" s="12">
         <v>250</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="D17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="11">
         <v>250</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="10">
         <v>42895</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="17">
+      <c r="B18" s="9"/>
+      <c r="C18" s="12">
         <v>450</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="10">
+      <c r="D18" s="12"/>
+      <c r="E18" s="11">
         <v>700</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="10">
         <v>42906</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17">
+      <c r="B19" s="9"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12">
         <v>250</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="11">
         <v>450</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="10">
         <v>42910</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="17">
+      <c r="B20" s="9"/>
+      <c r="C20" s="12">
         <v>750</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="10">
+      <c r="D20" s="12"/>
+      <c r="E20" s="11">
         <v>1200</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="10">
         <v>42915</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="17">
+      <c r="B21" s="9"/>
+      <c r="C21" s="12">
         <v>1600</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="10">
+      <c r="D21" s="12"/>
+      <c r="E21" s="11">
         <v>2800</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="C24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+      <c r="A25" s="10">
         <v>42888</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="17">
+      <c r="B25" s="9"/>
+      <c r="C25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="12">
         <v>150</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="17">
+      <c r="E25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="12">
         <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+      <c r="A26" s="10">
         <v>42894</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="17">
+      <c r="B26" s="9"/>
+      <c r="C26" s="12">
         <v>150</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="17">
+      <c r="D26" s="12"/>
+      <c r="E26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+      <c r="A27" s="10">
         <v>42896</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17">
+      <c r="B27" s="9"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12">
         <v>40</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="17">
+      <c r="E27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="12">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="A28" s="10">
         <v>42903</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17">
+      <c r="B28" s="9"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12">
         <v>30</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="17">
+      <c r="E28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="12">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+      <c r="A29" s="10">
         <v>42907</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="17">
+      <c r="B29" s="9"/>
+      <c r="C29" s="12">
         <v>40</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="17">
+      <c r="D29" s="12"/>
+      <c r="E29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
-    </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="C32" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+      <c r="A33" s="10">
         <v>42887</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="17">
+      <c r="B33" s="9"/>
+      <c r="C33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="12">
         <v>10000</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="17">
+      <c r="E33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="12">
         <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="11"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="C39" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
+      <c r="A40" s="10">
         <v>42916</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="17">
+      <c r="B40" s="9"/>
+      <c r="C40" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="12">
         <v>3750</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+      <c r="A41" s="10">
         <v>42916</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="10">
+      <c r="B41" s="9"/>
+      <c r="C41" s="11">
         <v>1200</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="17">
+      <c r="D41" s="12"/>
+      <c r="E41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="12">
         <v>2550</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+      <c r="A42" s="10">
         <v>42916</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="10">
+      <c r="B42" s="9"/>
+      <c r="C42" s="11">
         <v>220</v>
       </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="17">
+      <c r="D42" s="12"/>
+      <c r="E42" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="12">
         <v>2330</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
+      <c r="A43" s="10">
         <v>42916</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="10">
+      <c r="B43" s="9"/>
+      <c r="C43" s="11">
         <v>175</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="17">
+      <c r="D43" s="12"/>
+      <c r="E43" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="12">
         <v>2155</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
+      <c r="A44" s="10">
         <v>42916</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="10">
+      <c r="B44" s="9"/>
+      <c r="C44" s="11">
         <v>50</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="17">
+      <c r="D44" s="12"/>
+      <c r="E44" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="12">
         <v>2105</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+      <c r="A45" s="10">
         <v>42916</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="10">
+      <c r="B45" s="9"/>
+      <c r="C45" s="11">
         <v>700</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="17">
+      <c r="D45" s="12"/>
+      <c r="E45" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="12">
         <v>1405</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="11"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="15"/>
-    </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="C48" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16">
+      <c r="A49" s="10">
         <v>42916</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="10">
+      <c r="B49" s="9"/>
+      <c r="C49" s="11">
         <v>700</v>
       </c>
-      <c r="D49" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="10">
+      <c r="D49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="11">
         <v>700</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16">
+      <c r="A50" s="10">
         <v>42916</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="17">
+      <c r="B50" s="9"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="12">
         <v>700</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="11">
         <v>0</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="11"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="15"/>
-    </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="C53" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
+      <c r="A54" s="10">
         <v>42891</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="10">
+      <c r="B54" s="9"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="11">
         <v>200</v>
       </c>
-      <c r="E54" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="17">
+      <c r="E54" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="12">
         <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="16">
+      <c r="A55" s="10">
         <v>42892</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="10">
+      <c r="B55" s="9"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="11">
         <v>250</v>
       </c>
-      <c r="E55" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="17">
+      <c r="E55" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="12">
         <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16">
+      <c r="A56" s="10">
         <v>42895</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="10">
+      <c r="B56" s="9"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="11">
         <v>450</v>
       </c>
-      <c r="E56" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="17">
+      <c r="E56" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="12">
         <v>900</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16">
+      <c r="A57" s="10">
         <v>42902</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="10">
+      <c r="B57" s="9"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="11">
         <v>500</v>
       </c>
-      <c r="E57" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="17">
+      <c r="E57" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="12">
         <v>1400</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="16">
+      <c r="A58" s="10">
         <v>42910</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="10">
+      <c r="B58" s="9"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="11">
         <v>750</v>
       </c>
-      <c r="E58" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="17">
+      <c r="E58" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="12">
         <v>2150</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="16">
+      <c r="A59" s="10">
         <v>42915</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="10">
+      <c r="B59" s="9"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="11">
         <v>1600</v>
       </c>
-      <c r="E59" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="17">
+      <c r="E59" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="12">
         <v>3750</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="16">
+      <c r="A60" s="10">
         <v>42916</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="17">
+      <c r="B60" s="9"/>
+      <c r="C60" s="12">
         <v>3750</v>
       </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="17">
+      <c r="D60" s="11"/>
+      <c r="E60" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="11"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="15"/>
-    </row>
-    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="C63" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="16">
+      <c r="A64" s="10">
         <v>42899</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="17">
+      <c r="B64" s="9"/>
+      <c r="C64" s="12">
         <v>600</v>
       </c>
-      <c r="D64" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="10">
+      <c r="D64" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="11">
         <v>600</v>
       </c>
-      <c r="F64" s="17" t="s">
+      <c r="F64" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="16">
+      <c r="A65" s="10">
         <v>42913</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="17">
+      <c r="B65" s="9"/>
+      <c r="C65" s="12">
         <v>600</v>
       </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="10">
+      <c r="D65" s="12"/>
+      <c r="E65" s="11">
         <v>1200</v>
       </c>
-      <c r="F65" s="17" t="s">
+      <c r="F65" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="16">
+      <c r="A66" s="10">
         <v>42916</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17">
+      <c r="B66" s="9"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12">
         <v>1200</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="11">
         <v>0</v>
       </c>
-      <c r="F66" s="17" t="s">
+      <c r="F66" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="11"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="15"/>
-    </row>
-    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="2" t="s">
+      <c r="C69" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="16">
+      <c r="A70" s="10">
         <v>42888</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="10">
+      <c r="B70" s="9"/>
+      <c r="C70" s="11">
         <v>150</v>
       </c>
-      <c r="D70" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="10">
+      <c r="D70" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="11">
         <v>150</v>
       </c>
-      <c r="F70" s="9"/>
+      <c r="F70" s="13"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="16">
+      <c r="A71" s="10">
         <v>42896</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="10">
+      <c r="B71" s="9"/>
+      <c r="C71" s="11">
         <v>40</v>
       </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="10">
+      <c r="D71" s="12"/>
+      <c r="E71" s="11">
         <v>190</v>
       </c>
-      <c r="F71" s="9"/>
+      <c r="F71" s="13"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="16">
+      <c r="A72" s="10">
         <v>42903</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="10">
+      <c r="B72" s="9"/>
+      <c r="C72" s="11">
         <v>30</v>
       </c>
-      <c r="D72" s="17"/>
-      <c r="E72" s="10">
+      <c r="D72" s="12"/>
+      <c r="E72" s="11">
         <v>220</v>
       </c>
-      <c r="F72" s="9"/>
+      <c r="F72" s="13"/>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="16">
+      <c r="A73" s="10">
         <v>42916</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="17">
+      <c r="B73" s="9"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="12">
         <v>220</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="11">
         <v>0</v>
       </c>
-      <c r="F73" s="9"/>
+      <c r="F73" s="13"/>
     </row>
     <row r="74" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="11"/>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="15"/>
-    </row>
-    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="2" t="s">
+      <c r="C76" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="16">
+      <c r="A77" s="10">
         <v>42911</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="10">
+      <c r="B77" s="9"/>
+      <c r="C77" s="11">
         <v>175</v>
       </c>
-      <c r="D77" s="17"/>
-      <c r="E77" s="10">
+      <c r="D77" s="12"/>
+      <c r="E77" s="11">
         <v>175</v>
       </c>
-      <c r="F77" s="17" t="s">
+      <c r="F77" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="16">
+      <c r="A78" s="10">
         <v>42916</v>
       </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="17">
+      <c r="B78" s="9"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="12">
         <v>175</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E78" s="11">
         <v>0</v>
       </c>
-      <c r="F78" s="17" t="s">
+      <c r="F78" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="11"/>
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="15"/>
-    </row>
-    <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="2" t="s">
+      <c r="C81" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="16">
+      <c r="A82" s="10">
         <v>42887</v>
       </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="10">
+      <c r="B82" s="9"/>
+      <c r="C82" s="11">
         <v>50</v>
       </c>
-      <c r="D82" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82" s="10">
+      <c r="D82" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="11">
         <v>50</v>
       </c>
-      <c r="F82" s="17" t="s">
+      <c r="F82" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="16">
+      <c r="A83" s="10">
         <v>42916</v>
       </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="17">
+      <c r="B83" s="9"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="12">
         <v>50</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E83" s="11">
         <v>0</v>
       </c>
-      <c r="F83" s="17" t="s">
+      <c r="F83" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="16">
+      <c r="A84" s="10">
         <v>42938</v>
       </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="10">
+      <c r="B84" s="9"/>
+      <c r="C84" s="11">
         <v>20</v>
       </c>
-      <c r="D84" s="17"/>
-      <c r="E84" s="10">
+      <c r="D84" s="12"/>
+      <c r="E84" s="11">
         <v>20</v>
       </c>
-      <c r="F84" s="17" t="s">
+      <c r="F84" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="11"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="7"/>
     </row>
     <row r="86" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="11"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A38:F38"/>
     <mergeCell ref="A80:F80"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A52:F52"/>
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="A68:F68"/>
     <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A38:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17EB568-2849-41A5-8A17-9E52B83731DE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161E8B78-BE1A-47E5-AD8D-655D0A5AB654}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
@@ -221,26 +221,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -274,6 +261,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -597,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A82" activeCellId="10" sqref="A3:F13 A17:F21 A25:F29 A33:F36 A40:F45 A49:F50 A54:F60 A64:F66 A70:F73 A77:F78 A82:F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,190 +609,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="5">
         <v>42887</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="12">
+      <c r="B3" s="4"/>
+      <c r="C3" s="7">
         <v>10000</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6">
         <v>10000</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="5">
         <v>42887</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12">
+      <c r="B4" s="4"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7">
         <v>50</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="6">
         <v>9950</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="5">
         <v>42891</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12">
+      <c r="B5" s="4"/>
+      <c r="C5" s="7">
         <v>200</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11">
+      <c r="D5" s="7"/>
+      <c r="E5" s="6">
         <v>10150</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="5">
         <v>42894</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12">
+      <c r="B6" s="4"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
         <v>150</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="6">
         <v>10000</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="5">
         <v>42899</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12">
+      <c r="B7" s="4"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
         <v>600</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="6">
         <v>9400</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="5">
         <v>42902</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="12">
+      <c r="B8" s="4"/>
+      <c r="C8" s="7">
         <v>500</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11">
+      <c r="D8" s="7"/>
+      <c r="E8" s="6">
         <v>9900</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="5">
         <v>42906</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="12">
+      <c r="B9" s="4"/>
+      <c r="C9" s="7">
         <v>250</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11">
+      <c r="D9" s="7"/>
+      <c r="E9" s="6">
         <v>10150</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="5">
         <v>42907</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12">
+      <c r="B10" s="4"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
         <v>40</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="6">
         <v>10110</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="5">
         <v>42911</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12">
+      <c r="B11" s="4"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
         <v>175</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="6">
         <v>9935</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="5">
         <v>42913</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12">
+      <c r="B12" s="4"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
         <v>600</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="6">
         <v>9335</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="5">
         <v>42916</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12">
+      <c r="B13" s="4"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7">
         <v>700</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="6">
         <v>8635</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
@@ -807,114 +803,114 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="19" t="s">
+      <c r="C16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="5">
         <v>42892</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="12">
+      <c r="B17" s="4"/>
+      <c r="C17" s="7">
         <v>250</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="D17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="6">
         <v>250</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="5">
         <v>42895</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="12">
+      <c r="B18" s="4"/>
+      <c r="C18" s="7">
         <v>450</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11">
+      <c r="D18" s="7"/>
+      <c r="E18" s="6">
         <v>700</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="5">
         <v>42906</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12">
+      <c r="B19" s="4"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7">
         <v>250</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="6">
         <v>450</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="5">
         <v>42910</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="12">
+      <c r="B20" s="4"/>
+      <c r="C20" s="7">
         <v>750</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="11">
+      <c r="D20" s="7"/>
+      <c r="E20" s="6">
         <v>1200</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="5">
         <v>42915</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="12">
+      <c r="B21" s="4"/>
+      <c r="C21" s="7">
         <v>1600</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11">
+      <c r="D21" s="7"/>
+      <c r="E21" s="6">
         <v>2800</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -927,114 +923,114 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="19" t="s">
+      <c r="C24" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="A25" s="5">
         <v>42888</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="12">
+      <c r="B25" s="4"/>
+      <c r="C25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="7">
         <v>150</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="12">
+      <c r="E25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="7">
         <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="A26" s="5">
         <v>42894</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="12">
+      <c r="B26" s="4"/>
+      <c r="C26" s="7">
         <v>150</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="12">
+      <c r="D26" s="7"/>
+      <c r="E26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="A27" s="5">
         <v>42896</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12">
+      <c r="B27" s="4"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7">
         <v>40</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="12">
+      <c r="E27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="A28" s="5">
         <v>42903</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12">
+      <c r="B28" s="4"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7">
         <v>30</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="12">
+      <c r="E28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="7">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="A29" s="5">
         <v>42907</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="12">
+      <c r="B29" s="4"/>
+      <c r="C29" s="7">
         <v>40</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="12">
+      <c r="D29" s="7"/>
+      <c r="E29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="7">
         <v>30</v>
       </c>
     </row>
@@ -1047,76 +1043,76 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="19" t="s">
+      <c r="C32" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="A33" s="5">
         <v>42887</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="12">
+      <c r="B33" s="4"/>
+      <c r="C33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="7">
         <v>10000</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="12">
+      <c r="E33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="7">
         <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="13"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="13"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="13"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
@@ -1127,128 +1123,128 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="19" t="s">
+      <c r="C39" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+      <c r="A40" s="5">
         <v>42916</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="12">
+      <c r="B40" s="4"/>
+      <c r="C40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="7">
         <v>3750</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+      <c r="A41" s="5">
         <v>42916</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="11">
+      <c r="B41" s="4"/>
+      <c r="C41" s="6">
         <v>1200</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="12">
+      <c r="D41" s="7"/>
+      <c r="E41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="7">
         <v>2550</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+      <c r="A42" s="5">
         <v>42916</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="11">
+      <c r="B42" s="4"/>
+      <c r="C42" s="6">
         <v>220</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="12">
+      <c r="D42" s="7"/>
+      <c r="E42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="7">
         <v>2330</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+      <c r="A43" s="5">
         <v>42916</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="11">
+      <c r="B43" s="4"/>
+      <c r="C43" s="6">
         <v>175</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="12">
+      <c r="D43" s="7"/>
+      <c r="E43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="7">
         <v>2155</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
+      <c r="A44" s="5">
         <v>42916</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="11">
+      <c r="B44" s="4"/>
+      <c r="C44" s="6">
         <v>50</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="12">
+      <c r="D44" s="7"/>
+      <c r="E44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="7">
         <v>2105</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
+      <c r="A45" s="5">
         <v>42916</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="11">
+      <c r="B45" s="4"/>
+      <c r="C45" s="6">
         <v>700</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="12">
+      <c r="D45" s="7"/>
+      <c r="E45" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="7">
         <v>1405</v>
       </c>
     </row>
@@ -1261,66 +1257,66 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="6"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
     </row>
     <row r="48" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="19" t="s">
+      <c r="C48" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+      <c r="A49" s="5">
         <v>42916</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="11">
+      <c r="B49" s="4"/>
+      <c r="C49" s="6">
         <v>700</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="11">
+      <c r="D49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="6">
         <v>700</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+      <c r="A50" s="5">
         <v>42916</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12">
+      <c r="B50" s="4"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7">
         <v>700</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="6">
         <v>0</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1333,144 +1329,144 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="6"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
     </row>
     <row r="53" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="19" t="s">
+      <c r="C53" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
+      <c r="A54" s="5">
         <v>42891</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="11">
+      <c r="B54" s="4"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="6">
         <v>200</v>
       </c>
-      <c r="E54" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="12">
+      <c r="E54" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
+      <c r="A55" s="5">
         <v>42892</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="11">
+      <c r="B55" s="4"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="6">
         <v>250</v>
       </c>
-      <c r="E55" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="12">
+      <c r="E55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="7">
         <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
+      <c r="A56" s="5">
         <v>42895</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="11">
+      <c r="B56" s="4"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="6">
         <v>450</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="12">
+      <c r="E56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="7">
         <v>900</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
+      <c r="A57" s="5">
         <v>42902</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="11">
+      <c r="B57" s="4"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="6">
         <v>500</v>
       </c>
-      <c r="E57" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="12">
+      <c r="E57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="7">
         <v>1400</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
+      <c r="A58" s="5">
         <v>42910</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="11">
+      <c r="B58" s="4"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="6">
         <v>750</v>
       </c>
-      <c r="E58" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="12">
+      <c r="E58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="7">
         <v>2150</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
+      <c r="A59" s="5">
         <v>42915</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="11">
+      <c r="B59" s="4"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="6">
         <v>1600</v>
       </c>
-      <c r="E59" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="12">
+      <c r="E59" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="7">
         <v>3750</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
+      <c r="A60" s="5">
         <v>42916</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="12">
+      <c r="B60" s="4"/>
+      <c r="C60" s="7">
         <v>3750</v>
       </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="12">
+      <c r="D60" s="6"/>
+      <c r="E60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1483,82 +1479,82 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="6"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="19" t="s">
+      <c r="C63" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
+      <c r="A64" s="5">
         <v>42899</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="12">
+      <c r="B64" s="4"/>
+      <c r="C64" s="7">
         <v>600</v>
       </c>
-      <c r="D64" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="11">
+      <c r="D64" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="6">
         <v>600</v>
       </c>
-      <c r="F64" s="12" t="s">
+      <c r="F64" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10">
+      <c r="A65" s="5">
         <v>42913</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="12">
+      <c r="B65" s="4"/>
+      <c r="C65" s="7">
         <v>600</v>
       </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="11">
+      <c r="D65" s="7"/>
+      <c r="E65" s="6">
         <v>1200</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="F65" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10">
+      <c r="A66" s="5">
         <v>42916</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12">
+      <c r="B66" s="4"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7">
         <v>1200</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E66" s="6">
         <v>0</v>
       </c>
-      <c r="F66" s="12" t="s">
+      <c r="F66" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1571,92 +1567,92 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="6"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="17"/>
     </row>
     <row r="69" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="19" t="s">
+      <c r="C69" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10">
+      <c r="A70" s="5">
         <v>42888</v>
       </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="11">
+      <c r="B70" s="4"/>
+      <c r="C70" s="6">
         <v>150</v>
       </c>
-      <c r="D70" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="11">
+      <c r="D70" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="6">
         <v>150</v>
       </c>
-      <c r="F70" s="13"/>
+      <c r="F70" s="8"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10">
+      <c r="A71" s="5">
         <v>42896</v>
       </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="11">
+      <c r="B71" s="4"/>
+      <c r="C71" s="6">
         <v>40</v>
       </c>
-      <c r="D71" s="12"/>
-      <c r="E71" s="11">
+      <c r="D71" s="7"/>
+      <c r="E71" s="6">
         <v>190</v>
       </c>
-      <c r="F71" s="13"/>
+      <c r="F71" s="8"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10">
+      <c r="A72" s="5">
         <v>42903</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="11">
+      <c r="B72" s="4"/>
+      <c r="C72" s="6">
         <v>30</v>
       </c>
-      <c r="D72" s="12"/>
-      <c r="E72" s="11">
+      <c r="D72" s="7"/>
+      <c r="E72" s="6">
         <v>220</v>
       </c>
-      <c r="F72" s="13"/>
+      <c r="F72" s="8"/>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10">
+      <c r="A73" s="5">
         <v>42916</v>
       </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="12">
+      <c r="B73" s="4"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="7">
         <v>220</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E73" s="6">
         <v>0</v>
       </c>
-      <c r="F73" s="13"/>
+      <c r="F73" s="8"/>
     </row>
     <row r="74" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
@@ -1667,64 +1663,64 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="6"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="17"/>
     </row>
     <row r="76" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="19" t="s">
+      <c r="C76" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="10">
+      <c r="A77" s="5">
         <v>42911</v>
       </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="11">
+      <c r="B77" s="4"/>
+      <c r="C77" s="6">
         <v>175</v>
       </c>
-      <c r="D77" s="12"/>
-      <c r="E77" s="11">
+      <c r="D77" s="7"/>
+      <c r="E77" s="6">
         <v>175</v>
       </c>
-      <c r="F77" s="12" t="s">
+      <c r="F77" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="10">
+      <c r="A78" s="5">
         <v>42916</v>
       </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="12">
+      <c r="B78" s="4"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="7">
         <v>175</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E78" s="6">
         <v>0</v>
       </c>
-      <c r="F78" s="12" t="s">
+      <c r="F78" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1737,114 +1733,98 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="6"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="17"/>
     </row>
     <row r="81" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="19" t="s">
+      <c r="C81" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="10">
+      <c r="A82" s="5">
         <v>42887</v>
       </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="11">
+      <c r="B82" s="4"/>
+      <c r="C82" s="6">
         <v>50</v>
       </c>
-      <c r="D82" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82" s="11">
+      <c r="D82" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="6">
         <v>50</v>
       </c>
-      <c r="F82" s="12" t="s">
+      <c r="F82" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="10">
+      <c r="A83" s="5">
         <v>42916</v>
       </c>
-      <c r="B83" s="9"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="12">
+      <c r="B83" s="4"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="7">
         <v>50</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E83" s="6">
         <v>0</v>
       </c>
-      <c r="F83" s="12" t="s">
+      <c r="F83" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="10">
+      <c r="A84" s="5">
         <v>42938</v>
       </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="11">
+      <c r="B84" s="4"/>
+      <c r="C84" s="6">
         <v>20</v>
       </c>
-      <c r="D84" s="12"/>
-      <c r="E84" s="11">
+      <c r="D84" s="7"/>
+      <c r="E84" s="6">
         <v>20</v>
       </c>
-      <c r="F84" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="7"/>
-    </row>
-    <row r="86" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="7"/>
+      <c r="F84" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A38:F38"/>
     <mergeCell ref="A80:F80"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A52:F52"/>
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="A68:F68"/>
     <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A38:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161E8B78-BE1A-47E5-AD8D-655D0A5AB654}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7804B712-3ACB-4D48-93A3-AC7F574B3A68}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
@@ -85,9 +85,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -96,13 +95,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -114,6 +106,14 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -230,47 +230,47 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A82" activeCellId="10" sqref="A3:F13 A17:F21 A25:F29 A33:F36 A40:F45 A49:F50 A54:F60 A64:F66 A70:F73 A77:F78 A82:F84"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,32 +609,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -643,156 +643,156 @@
         <v>42887</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="7">
+      <c r="C3" s="12">
         <v>10000</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="13">
         <v>10000</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>42887</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12">
         <v>50</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="13">
         <v>9950</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>42891</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="7">
+      <c r="C5" s="12">
         <v>200</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6">
+      <c r="D5" s="12"/>
+      <c r="E5" s="13">
         <v>10150</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>42894</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12">
         <v>150</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="13">
         <v>10000</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>42899</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12">
         <v>600</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="13">
         <v>9400</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>42902</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="7">
+      <c r="C8" s="12">
         <v>500</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6">
+      <c r="D8" s="12"/>
+      <c r="E8" s="13">
         <v>9900</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>42906</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="7">
+      <c r="C9" s="12">
         <v>250</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6">
+      <c r="D9" s="12"/>
+      <c r="E9" s="13">
         <v>10150</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>42907</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12">
         <v>40</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="13">
         <v>10110</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>42911</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12">
         <v>175</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="13">
         <v>9935</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>42913</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12">
         <v>600</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="13">
         <v>9335</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>42916</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12">
         <v>700</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="13">
         <v>8635</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
@@ -803,32 +803,32 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="14" t="s">
+      <c r="C16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -837,16 +837,16 @@
         <v>42892</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="7">
+      <c r="C17" s="12">
         <v>250</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="D17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="13">
         <v>250</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -855,14 +855,14 @@
         <v>42895</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="7">
+      <c r="C18" s="12">
         <v>450</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="6">
+      <c r="D18" s="12"/>
+      <c r="E18" s="13">
         <v>700</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -871,14 +871,14 @@
         <v>42906</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12">
         <v>250</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="13">
         <v>450</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -887,14 +887,14 @@
         <v>42910</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="7">
+      <c r="C20" s="12">
         <v>750</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6">
+      <c r="D20" s="12"/>
+      <c r="E20" s="13">
         <v>1200</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -903,14 +903,14 @@
         <v>42915</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="7">
+      <c r="C21" s="12">
         <v>1600</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6">
+      <c r="D21" s="12"/>
+      <c r="E21" s="13">
         <v>2800</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -923,32 +923,32 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="14" t="s">
+      <c r="C24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -957,16 +957,16 @@
         <v>42888</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="C25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="12">
         <v>150</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="7">
+      <c r="E25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="12">
         <v>150</v>
       </c>
     </row>
@@ -975,14 +975,14 @@
         <v>42894</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="7">
+      <c r="C26" s="12">
         <v>150</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="7">
+      <c r="D26" s="12"/>
+      <c r="E26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="12">
         <v>0</v>
       </c>
     </row>
@@ -991,14 +991,14 @@
         <v>42896</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12">
         <v>40</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="7">
+      <c r="E27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="12">
         <v>40</v>
       </c>
     </row>
@@ -1007,14 +1007,14 @@
         <v>42903</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12">
         <v>30</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="7">
+      <c r="E28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="12">
         <v>70</v>
       </c>
     </row>
@@ -1023,14 +1023,14 @@
         <v>42907</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="7">
+      <c r="C29" s="12">
         <v>40</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="7">
+      <c r="D29" s="12"/>
+      <c r="E29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="12">
         <v>30</v>
       </c>
     </row>
@@ -1043,32 +1043,32 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="14" t="s">
+      <c r="C32" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1077,42 +1077,42 @@
         <v>42887</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="C33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="12">
         <v>10000</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="7">
+      <c r="E33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="12">
         <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="8"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="8"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="8"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
@@ -1123,32 +1123,32 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="17"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="14" t="s">
+      <c r="C39" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1157,14 +1157,14 @@
         <v>42916</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="7">
+      <c r="C40" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="12">
         <v>3750</v>
       </c>
     </row>
@@ -1173,14 +1173,14 @@
         <v>42916</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="6">
+      <c r="C41" s="13">
         <v>1200</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="7">
+      <c r="D41" s="12"/>
+      <c r="E41" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="12">
         <v>2550</v>
       </c>
     </row>
@@ -1189,14 +1189,14 @@
         <v>42916</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="6">
+      <c r="C42" s="13">
         <v>220</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="7">
+      <c r="D42" s="12"/>
+      <c r="E42" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="12">
         <v>2330</v>
       </c>
     </row>
@@ -1205,14 +1205,14 @@
         <v>42916</v>
       </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="6">
+      <c r="C43" s="13">
         <v>175</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="7">
+      <c r="D43" s="12"/>
+      <c r="E43" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="12">
         <v>2155</v>
       </c>
     </row>
@@ -1221,14 +1221,14 @@
         <v>42916</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="6">
+      <c r="C44" s="13">
         <v>50</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="7">
+      <c r="D44" s="12"/>
+      <c r="E44" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="12">
         <v>2105</v>
       </c>
     </row>
@@ -1237,14 +1237,14 @@
         <v>42916</v>
       </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="6">
+      <c r="C45" s="13">
         <v>700</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="7">
+      <c r="D45" s="12"/>
+      <c r="E45" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="12">
         <v>1405</v>
       </c>
     </row>
@@ -1257,32 +1257,32 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="17"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="14" t="s">
+      <c r="C48" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1291,16 +1291,16 @@
         <v>42916</v>
       </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="6">
+      <c r="C49" s="13">
         <v>700</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="6">
+      <c r="D49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="13">
         <v>700</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1309,14 +1309,14 @@
         <v>42916</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7">
+      <c r="C50" s="13"/>
+      <c r="D50" s="12">
         <v>700</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="13">
         <v>0</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1329,32 +1329,32 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="17"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="10"/>
     </row>
     <row r="53" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="14" t="s">
+      <c r="C53" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1363,14 +1363,14 @@
         <v>42891</v>
       </c>
       <c r="B54" s="4"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="6">
+      <c r="C54" s="12"/>
+      <c r="D54" s="13">
         <v>200</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="7">
+      <c r="E54" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="12">
         <v>200</v>
       </c>
     </row>
@@ -1379,14 +1379,14 @@
         <v>42892</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="6">
+      <c r="C55" s="12"/>
+      <c r="D55" s="13">
         <v>250</v>
       </c>
-      <c r="E55" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="7">
+      <c r="E55" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="12">
         <v>450</v>
       </c>
     </row>
@@ -1395,14 +1395,14 @@
         <v>42895</v>
       </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="6">
+      <c r="C56" s="12"/>
+      <c r="D56" s="13">
         <v>450</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="7">
+      <c r="E56" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="12">
         <v>900</v>
       </c>
     </row>
@@ -1411,14 +1411,14 @@
         <v>42902</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="6">
+      <c r="C57" s="12"/>
+      <c r="D57" s="13">
         <v>500</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="7">
+      <c r="E57" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="12">
         <v>1400</v>
       </c>
     </row>
@@ -1427,14 +1427,14 @@
         <v>42910</v>
       </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="6">
+      <c r="C58" s="12"/>
+      <c r="D58" s="13">
         <v>750</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="7">
+      <c r="E58" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="12">
         <v>2150</v>
       </c>
     </row>
@@ -1443,14 +1443,14 @@
         <v>42915</v>
       </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="6">
+      <c r="C59" s="12"/>
+      <c r="D59" s="13">
         <v>1600</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="7">
+      <c r="E59" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="12">
         <v>3750</v>
       </c>
     </row>
@@ -1459,14 +1459,14 @@
         <v>42916</v>
       </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="7">
+      <c r="C60" s="12">
         <v>3750</v>
       </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="7">
+      <c r="D60" s="13"/>
+      <c r="E60" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1479,32 +1479,32 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="17"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="14" t="s">
+      <c r="C63" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1513,16 +1513,16 @@
         <v>42899</v>
       </c>
       <c r="B64" s="4"/>
-      <c r="C64" s="7">
+      <c r="C64" s="12">
         <v>600</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="6">
+      <c r="D64" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="13">
         <v>600</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1531,14 +1531,14 @@
         <v>42913</v>
       </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="7">
+      <c r="C65" s="12">
         <v>600</v>
       </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="6">
+      <c r="D65" s="12"/>
+      <c r="E65" s="13">
         <v>1200</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1547,14 +1547,14 @@
         <v>42916</v>
       </c>
       <c r="B66" s="4"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7">
+      <c r="C66" s="12"/>
+      <c r="D66" s="12">
         <v>1200</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="13">
         <v>0</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1567,32 +1567,32 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="17"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="10"/>
     </row>
     <row r="69" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="14" t="s">
+      <c r="C69" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1601,58 +1601,58 @@
         <v>42888</v>
       </c>
       <c r="B70" s="4"/>
-      <c r="C70" s="6">
+      <c r="C70" s="13">
         <v>150</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="6">
+      <c r="D70" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="13">
         <v>150</v>
       </c>
-      <c r="F70" s="8"/>
+      <c r="F70" s="17"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>42896</v>
       </c>
       <c r="B71" s="4"/>
-      <c r="C71" s="6">
+      <c r="C71" s="13">
         <v>40</v>
       </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="6">
+      <c r="D71" s="12"/>
+      <c r="E71" s="13">
         <v>190</v>
       </c>
-      <c r="F71" s="8"/>
+      <c r="F71" s="17"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>42903</v>
       </c>
       <c r="B72" s="4"/>
-      <c r="C72" s="6">
+      <c r="C72" s="13">
         <v>30</v>
       </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="6">
+      <c r="D72" s="12"/>
+      <c r="E72" s="13">
         <v>220</v>
       </c>
-      <c r="F72" s="8"/>
+      <c r="F72" s="17"/>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>42916</v>
       </c>
       <c r="B73" s="4"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="7">
+      <c r="C73" s="13"/>
+      <c r="D73" s="12">
         <v>220</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="13">
         <v>0</v>
       </c>
-      <c r="F73" s="8"/>
+      <c r="F73" s="17"/>
     </row>
     <row r="74" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
@@ -1663,32 +1663,32 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="17"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="10"/>
     </row>
     <row r="76" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="14" t="s">
+      <c r="C76" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1697,14 +1697,14 @@
         <v>42911</v>
       </c>
       <c r="B77" s="4"/>
-      <c r="C77" s="6">
+      <c r="C77" s="13">
         <v>175</v>
       </c>
-      <c r="D77" s="7"/>
-      <c r="E77" s="6">
+      <c r="D77" s="12"/>
+      <c r="E77" s="13">
         <v>175</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1713,14 +1713,14 @@
         <v>42916</v>
       </c>
       <c r="B78" s="4"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="7">
+      <c r="C78" s="13"/>
+      <c r="D78" s="12">
         <v>175</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="13">
         <v>0</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1733,32 +1733,32 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="17"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="10"/>
     </row>
     <row r="81" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="14" t="s">
+      <c r="C81" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1767,16 +1767,16 @@
         <v>42887</v>
       </c>
       <c r="B82" s="4"/>
-      <c r="C82" s="6">
+      <c r="C82" s="13">
         <v>50</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82" s="6">
+      <c r="D82" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="13">
         <v>50</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1785,14 +1785,14 @@
         <v>42916</v>
       </c>
       <c r="B83" s="4"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="7">
+      <c r="C83" s="13"/>
+      <c r="D83" s="12">
         <v>50</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="13">
         <v>0</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1801,30 +1801,30 @@
         <v>42938</v>
       </c>
       <c r="B84" s="4"/>
-      <c r="C84" s="6">
+      <c r="C84" s="13">
         <v>20</v>
       </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="6">
+      <c r="D84" s="12"/>
+      <c r="E84" s="13">
         <v>20</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="12" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A38:F38"/>
     <mergeCell ref="A80:F80"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A52:F52"/>
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="A68:F68"/>
     <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A38:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7804B712-3ACB-4D48-93A3-AC7F574B3A68}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D985B334-5E32-4412-96E9-3F2166E9F412}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
@@ -136,7 +136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -173,46 +173,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFE1A16C"/>
       </left>
       <right style="thin">
         <color rgb="FFE1A16C"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FFE1A16C"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FFE1A16C"/>
       </bottom>
       <diagonal/>
@@ -221,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -242,35 +212,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,33 +572,33 @@
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -643,158 +607,158 @@
         <v>42887</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="12">
+      <c r="C3" s="9">
         <v>10000</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="D3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="10">
         <v>10000</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>42887</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9">
         <v>50</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>9950</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>42891</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>200</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13">
+      <c r="D5" s="9"/>
+      <c r="E5" s="10">
         <v>10150</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>42894</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
         <v>150</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>10000</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>42899</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
         <v>600</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <v>9400</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>42902</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>500</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13">
+      <c r="D8" s="9"/>
+      <c r="E8" s="10">
         <v>9900</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>42906</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="12">
+      <c r="C9" s="9">
         <v>250</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13">
+      <c r="D9" s="9"/>
+      <c r="E9" s="10">
         <v>10150</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>42907</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9">
         <v>40</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>10110</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>42911</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9">
         <v>175</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="10">
         <v>9935</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>42913</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9">
         <v>600</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <v>9335</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>42916</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9">
         <v>700</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <v>8635</v>
       </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -802,33 +766,33 @@
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="C16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -837,16 +801,16 @@
         <v>42892</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="12">
+      <c r="C17" s="9">
         <v>250</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="D17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="10">
         <v>250</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -855,14 +819,14 @@
         <v>42895</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="12">
+      <c r="C18" s="9">
         <v>450</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13">
+      <c r="D18" s="9"/>
+      <c r="E18" s="10">
         <v>700</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -871,14 +835,14 @@
         <v>42906</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9">
         <v>250</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="10">
         <v>450</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -887,14 +851,14 @@
         <v>42910</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="12">
+      <c r="C20" s="9">
         <v>750</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13">
+      <c r="D20" s="9"/>
+      <c r="E20" s="10">
         <v>1200</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -903,285 +867,275 @@
         <v>42915</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="12">
+      <c r="C21" s="9">
         <v>1600</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13">
+      <c r="D21" s="9"/>
+      <c r="E21" s="10">
         <v>2800</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="F21" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>42888</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="12">
-        <v>150</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="12">
-        <v>150</v>
+      <c r="C25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>42894</v>
+        <v>42888</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="12">
+      <c r="C26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="9">
         <v>150</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="12">
-        <v>0</v>
+      <c r="E26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="9">
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>42896</v>
+        <v>42894</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12">
-        <v>40</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="12">
-        <v>40</v>
+      <c r="C27" s="9">
+        <v>150</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>42903</v>
+        <v>42896</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12">
-        <v>30</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="12">
-        <v>70</v>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9">
+        <v>40</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="9">
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
+        <v>42903</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9">
+        <v>30</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>42907</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="12">
+      <c r="B30" s="4"/>
+      <c r="C30" s="9">
         <v>40</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="12">
+      <c r="D30" s="9"/>
+      <c r="E30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="9"/>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B31" s="4"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B34" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="C34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>42887</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="12">
+      <c r="B35" s="4"/>
+      <c r="C35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="9">
         <v>10000</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="12">
+      <c r="E35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="9">
         <v>10000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="17"/>
-    </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
+      <c r="A36" s="5">
+        <v>42916</v>
+      </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17"/>
-    </row>
-    <row r="37" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B41" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>42916</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="12">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>42916</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="13">
-        <v>1200</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="12">
-        <v>2550</v>
+      <c r="C41" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1189,15 +1143,15 @@
         <v>42916</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="13">
-        <v>220</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="12">
-        <v>2330</v>
+      <c r="C42" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="9">
+        <v>3750</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1205,15 +1159,15 @@
         <v>42916</v>
       </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="13">
-        <v>175</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="12">
-        <v>2155</v>
+      <c r="C43" s="10">
+        <v>1200</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="9">
+        <v>2550</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1221,15 +1175,15 @@
         <v>42916</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="13">
-        <v>50</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="12">
-        <v>2105</v>
+      <c r="C44" s="10">
+        <v>220</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="9">
+        <v>2330</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1237,594 +1191,626 @@
         <v>42916</v>
       </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="13">
+      <c r="C45" s="10">
+        <v>175</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="9">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="10">
+        <v>50</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="9">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="10">
         <v>700</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="12">
+      <c r="D47" s="9"/>
+      <c r="E47" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="9">
         <v>1405</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
+    <row r="48" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+    </row>
+    <row r="50" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B50" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="C50" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
         <v>42916</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="13">
+      <c r="B51" s="4"/>
+      <c r="C51" s="10">
         <v>700</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="13">
+      <c r="D51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="10">
         <v>700</v>
       </c>
-      <c r="F49" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="F51" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
         <v>42916</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="12">
+      <c r="B52" s="4"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="9">
         <v>700</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E52" s="10">
         <v>0</v>
       </c>
-      <c r="F50" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
+      <c r="F52" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="10"/>
-    </row>
-    <row r="53" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+    </row>
+    <row r="55" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B55" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>42891</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="13">
-        <v>200</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>42892</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="13">
-        <v>250</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="12">
-        <v>450</v>
+      <c r="C55" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>42895</v>
+        <v>42891</v>
       </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="13">
-        <v>450</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="12">
-        <v>900</v>
+      <c r="C56" s="9"/>
+      <c r="D56" s="10">
+        <v>200</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>42902</v>
+        <v>42892</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="13">
-        <v>500</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="12">
-        <v>1400</v>
+      <c r="C57" s="9"/>
+      <c r="D57" s="10">
+        <v>250</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="9">
+        <v>450</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>42910</v>
+        <v>42895</v>
       </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="13">
-        <v>750</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="12">
-        <v>2150</v>
+      <c r="C58" s="9"/>
+      <c r="D58" s="10">
+        <v>450</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="9">
+        <v>900</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>42915</v>
+        <v>42902</v>
       </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="13">
-        <v>1600</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="12">
-        <v>3750</v>
+      <c r="C59" s="9"/>
+      <c r="D59" s="10">
+        <v>500</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="9">
+        <v>1400</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
+        <v>42910</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="10">
+        <v>750</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="9">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>42915</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="10">
+        <v>1600</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="9">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
         <v>42916</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="12">
+      <c r="B62" s="4"/>
+      <c r="C62" s="9">
         <v>3750</v>
       </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="12">
+      <c r="D62" s="10"/>
+      <c r="E62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
+    <row r="63" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="10"/>
-    </row>
-    <row r="63" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+    </row>
+    <row r="65" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B65" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
-        <v>42899</v>
-      </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="12">
-        <v>600</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="13">
-        <v>600</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
-        <v>42913</v>
-      </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="12">
-        <v>600</v>
-      </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="13">
-        <v>1200</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>15</v>
+      <c r="C65" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
+        <v>42899</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="9">
+        <v>600</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="10">
+        <v>600</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>42913</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="9">
+        <v>600</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10">
+        <v>1200</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
         <v>42916</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12">
+      <c r="B68" s="4"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9">
         <v>1200</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E68" s="10">
         <v>0</v>
       </c>
-      <c r="F66" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="8" t="s">
+      <c r="F68" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+    </row>
+    <row r="71" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B71" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
-        <v>42888</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="13">
-        <v>150</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="13">
-        <v>150</v>
-      </c>
-      <c r="F70" s="17"/>
-    </row>
-    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
-        <v>42896</v>
-      </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="13">
-        <v>40</v>
-      </c>
-      <c r="D71" s="12"/>
-      <c r="E71" s="13">
-        <v>190</v>
-      </c>
-      <c r="F71" s="17"/>
+      <c r="C71" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>42903</v>
+        <v>42888</v>
       </c>
       <c r="B72" s="4"/>
-      <c r="C72" s="13">
-        <v>30</v>
-      </c>
-      <c r="D72" s="12"/>
-      <c r="E72" s="13">
-        <v>220</v>
-      </c>
-      <c r="F72" s="17"/>
+      <c r="C72" s="10">
+        <v>150</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="10">
+        <v>150</v>
+      </c>
+      <c r="F72" s="14"/>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
+        <v>42896</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="10">
+        <v>40</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="E73" s="10">
+        <v>190</v>
+      </c>
+      <c r="F73" s="14"/>
+    </row>
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>42903</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="10">
+        <v>30</v>
+      </c>
+      <c r="D74" s="9"/>
+      <c r="E74" s="10">
+        <v>220</v>
+      </c>
+      <c r="F74" s="14"/>
+    </row>
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
         <v>42916</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="12">
+      <c r="B75" s="4"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="9">
         <v>220</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E75" s="10">
         <v>0</v>
       </c>
-      <c r="F73" s="17"/>
-    </row>
-    <row r="74" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="8" t="s">
+      <c r="F75" s="14"/>
+    </row>
+    <row r="76" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="10"/>
-    </row>
-    <row r="76" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+    </row>
+    <row r="78" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B78" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
+      <c r="C78" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
         <v>42911</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="13">
+      <c r="B79" s="4"/>
+      <c r="C79" s="10">
         <v>175</v>
       </c>
-      <c r="D77" s="12"/>
-      <c r="E77" s="13">
+      <c r="D79" s="9"/>
+      <c r="E79" s="10">
         <v>175</v>
       </c>
-      <c r="F77" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
+      <c r="F79" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
         <v>42916</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="12">
+      <c r="B80" s="4"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="9">
         <v>175</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E80" s="10">
         <v>0</v>
       </c>
-      <c r="F78" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="s">
+      <c r="F80" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="10"/>
-    </row>
-    <row r="81" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+    </row>
+    <row r="83" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B83" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
-        <v>42887</v>
-      </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="13">
-        <v>50</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82" s="13">
-        <v>50</v>
-      </c>
-      <c r="F82" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
-        <v>42916</v>
-      </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="12">
-        <v>50</v>
-      </c>
-      <c r="E83" s="13">
-        <v>0</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>15</v>
+      <c r="C83" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
+        <v>42887</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="10">
+        <v>50</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="10">
+        <v>50</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="9">
+        <v>50</v>
+      </c>
+      <c r="E85" s="10">
+        <v>0</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
         <v>42938</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="13">
+      <c r="B86" s="4"/>
+      <c r="C86" s="10">
         <v>20</v>
       </c>
-      <c r="D84" s="12"/>
-      <c r="E84" s="13">
+      <c r="D86" s="9"/>
+      <c r="E86" s="10">
         <v>20</v>
       </c>
-      <c r="F84" s="12" t="s">
+      <c r="F86" s="9" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A77:F77"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_A_Sheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D985B334-5E32-4412-96E9-3F2166E9F412}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18439DE6-E914-4AEF-9918-E6EE9047A30E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="34">
   <si>
     <t>Cash</t>
   </si>
@@ -79,15 +79,66 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>6/1</t>
+  </si>
+  <si>
+    <t>6/5</t>
+  </si>
+  <si>
+    <t>6/8</t>
+  </si>
+  <si>
+    <t>6/13</t>
+  </si>
+  <si>
+    <t>6/16</t>
+  </si>
+  <si>
+    <t>6/20</t>
+  </si>
+  <si>
+    <t>6/21</t>
+  </si>
+  <si>
+    <t>6/25</t>
+  </si>
+  <si>
+    <t>6/27</t>
+  </si>
+  <si>
+    <t>6/30</t>
+  </si>
+  <si>
+    <t>6/6</t>
+  </si>
+  <si>
+    <t>6/9</t>
+  </si>
+  <si>
+    <t>6/24</t>
+  </si>
+  <si>
+    <t>6/29</t>
+  </si>
+  <si>
+    <t>6/2</t>
+  </si>
+  <si>
+    <t>6/10</t>
+  </si>
+  <si>
+    <t>6/17</t>
+  </si>
+  <si>
+    <t>7/22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,12 +254,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -234,6 +279,12 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,190 +624,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>42887</v>
+      <c r="A3" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>10000</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="8">
         <v>10000</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>42887</v>
+      <c r="A4" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7">
         <v>50</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>9950</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>42891</v>
+      <c r="A5" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>200</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8">
         <v>10150</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>42894</v>
+      <c r="A6" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
         <v>150</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>10000</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>42899</v>
+      <c r="A7" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
         <v>600</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>9400</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>42902</v>
+      <c r="A8" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>500</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10">
+      <c r="D8" s="7"/>
+      <c r="E8" s="8">
         <v>9900</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>42906</v>
+      <c r="A9" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>250</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10">
+      <c r="D9" s="7"/>
+      <c r="E9" s="8">
         <v>10150</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>42907</v>
+      <c r="A10" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
         <v>40</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>10110</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>42911</v>
+      <c r="A11" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
         <v>175</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>9935</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>42913</v>
+      <c r="A12" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
         <v>600</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>9335</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>42916</v>
+      <c r="A13" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7">
         <v>700</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>8635</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -767,126 +818,126 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="C16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>42892</v>
+      <c r="A17" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>250</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="D17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="8">
         <v>250</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>42895</v>
+      <c r="A18" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>450</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10">
+      <c r="D18" s="7"/>
+      <c r="E18" s="8">
         <v>700</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>42906</v>
+      <c r="A19" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7">
         <v>250</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="8">
         <v>450</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>42910</v>
+      <c r="A20" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="9">
+      <c r="C20" s="7">
         <v>750</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10">
+      <c r="D20" s="7"/>
+      <c r="E20" s="8">
         <v>1200</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>42915</v>
+      <c r="A21" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="9">
+      <c r="C21" s="7">
         <v>1600</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10">
+      <c r="D21" s="7"/>
+      <c r="E21" s="8">
         <v>2800</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>42916</v>
+      <c r="A22" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="9"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -897,126 +948,126 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="C25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>42888</v>
+      <c r="A26" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="C26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="7">
         <v>150</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="9">
+      <c r="E26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="7">
         <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>42894</v>
+      <c r="A27" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="9">
+      <c r="C27" s="7">
         <v>150</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="9">
+      <c r="D27" s="7"/>
+      <c r="E27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>42896</v>
+      <c r="A28" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7">
         <v>40</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="9">
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>42903</v>
+      <c r="A29" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7">
         <v>30</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="9">
+      <c r="E29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="7">
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>42907</v>
+      <c r="A30" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="9">
+      <c r="C30" s="7">
         <v>40</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="9">
+      <c r="D30" s="7"/>
+      <c r="E30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>42916</v>
+      <c r="A31" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="9"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
@@ -1027,78 +1078,78 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="8" t="s">
+      <c r="C34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>42887</v>
+      <c r="A35" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="9">
+      <c r="C35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="7">
         <v>10000</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="9">
+      <c r="E35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="7">
         <v>10000</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>42916</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14"/>
+      <c r="A36" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="14"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="14"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
@@ -1109,128 +1160,128 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="8" t="s">
+      <c r="C41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>42916</v>
+      <c r="A42" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="9">
+      <c r="C42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="7">
         <v>3750</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>42916</v>
+      <c r="A43" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="10">
+      <c r="C43" s="8">
         <v>1200</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="9">
+      <c r="D43" s="7"/>
+      <c r="E43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="7">
         <v>2550</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>42916</v>
+      <c r="A44" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="10">
+      <c r="C44" s="8">
         <v>220</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="9">
+      <c r="D44" s="7"/>
+      <c r="E44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="7">
         <v>2330</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>42916</v>
+      <c r="A45" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="10">
+      <c r="C45" s="8">
         <v>175</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="9">
+      <c r="D45" s="7"/>
+      <c r="E45" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="7">
         <v>2155</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>42916</v>
+      <c r="A46" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B46" s="4"/>
-      <c r="C46" s="10">
+      <c r="C46" s="8">
         <v>50</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="9">
+      <c r="D46" s="7"/>
+      <c r="E46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="7">
         <v>2105</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>42916</v>
+      <c r="A47" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B47" s="4"/>
-      <c r="C47" s="10">
+      <c r="C47" s="8">
         <v>700</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="9">
+      <c r="D47" s="7"/>
+      <c r="E47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="7">
         <v>1405</v>
       </c>
     </row>
@@ -1243,66 +1294,66 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
     </row>
     <row r="50" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="8" t="s">
+      <c r="C50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>42916</v>
+      <c r="A51" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="10">
+      <c r="C51" s="8">
         <v>700</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="10">
+      <c r="D51" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="8">
         <v>700</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>42916</v>
+      <c r="A52" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="9">
+      <c r="C52" s="8"/>
+      <c r="D52" s="7">
         <v>700</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="8">
         <v>0</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1315,144 +1366,144 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F55" s="8" t="s">
+      <c r="C55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>42891</v>
+      <c r="A56" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="10">
+      <c r="C56" s="7"/>
+      <c r="D56" s="8">
         <v>200</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="9">
+      <c r="E56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>42892</v>
+      <c r="A57" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="10">
+      <c r="C57" s="7"/>
+      <c r="D57" s="8">
         <v>250</v>
       </c>
-      <c r="E57" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="9">
+      <c r="E57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="7">
         <v>450</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>42895</v>
+      <c r="A58" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10">
+      <c r="C58" s="7"/>
+      <c r="D58" s="8">
         <v>450</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="9">
+      <c r="E58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="7">
         <v>900</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>42902</v>
+      <c r="A59" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="10">
+      <c r="C59" s="7"/>
+      <c r="D59" s="8">
         <v>500</v>
       </c>
-      <c r="E59" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="9">
+      <c r="E59" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="7">
         <v>1400</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>42910</v>
+      <c r="A60" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="10">
+      <c r="C60" s="7"/>
+      <c r="D60" s="8">
         <v>750</v>
       </c>
-      <c r="E60" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="9">
+      <c r="E60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="7">
         <v>2150</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>42915</v>
+      <c r="A61" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="B61" s="4"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="10">
+      <c r="C61" s="7"/>
+      <c r="D61" s="8">
         <v>1600</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="9">
+      <c r="E61" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="7">
         <v>3750</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>42916</v>
+      <c r="A62" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B62" s="4"/>
-      <c r="C62" s="9">
+      <c r="C62" s="7">
         <v>3750</v>
       </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" s="9">
+      <c r="D62" s="8"/>
+      <c r="E62" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1465,82 +1516,82 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
     </row>
     <row r="65" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F65" s="8" t="s">
+      <c r="C65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
-        <v>42899</v>
+      <c r="A66" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="B66" s="4"/>
-      <c r="C66" s="9">
+      <c r="C66" s="7">
         <v>600</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="10">
+      <c r="D66" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="8">
         <v>600</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
-        <v>42913</v>
+      <c r="A67" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="B67" s="4"/>
-      <c r="C67" s="9">
+      <c r="C67" s="7">
         <v>600</v>
       </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="10">
+      <c r="D67" s="7"/>
+      <c r="E67" s="8">
         <v>1200</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
-        <v>42916</v>
+      <c r="A68" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B68" s="4"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9">
+      <c r="C68" s="7"/>
+      <c r="D68" s="7">
         <v>1200</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="8">
         <v>0</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1553,92 +1604,92 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
     </row>
     <row r="71" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F71" s="8" t="s">
+      <c r="C71" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <v>42888</v>
+      <c r="A72" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="B72" s="4"/>
-      <c r="C72" s="10">
+      <c r="C72" s="8">
         <v>150</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="10">
+      <c r="D72" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="8">
         <v>150</v>
       </c>
-      <c r="F72" s="14"/>
+      <c r="F72" s="12"/>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>42896</v>
+      <c r="A73" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="B73" s="4"/>
-      <c r="C73" s="10">
+      <c r="C73" s="8">
         <v>40</v>
       </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="10">
+      <c r="D73" s="7"/>
+      <c r="E73" s="8">
         <v>190</v>
       </c>
-      <c r="F73" s="14"/>
+      <c r="F73" s="12"/>
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
-        <v>42903</v>
+      <c r="A74" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="B74" s="4"/>
-      <c r="C74" s="10">
+      <c r="C74" s="8">
         <v>30</v>
       </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="10">
+      <c r="D74" s="7"/>
+      <c r="E74" s="8">
         <v>220</v>
       </c>
-      <c r="F74" s="14"/>
+      <c r="F74" s="12"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
-        <v>42916</v>
+      <c r="A75" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B75" s="4"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="9">
+      <c r="C75" s="8"/>
+      <c r="D75" s="7">
         <v>220</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="8">
         <v>0</v>
       </c>
-      <c r="F75" s="14"/>
+      <c r="F75" s="12"/>
     </row>
     <row r="76" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
@@ -1649,64 +1700,64 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
     </row>
     <row r="78" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F78" s="8" t="s">
+      <c r="C78" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
-        <v>42911</v>
+      <c r="A79" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="B79" s="4"/>
-      <c r="C79" s="10">
+      <c r="C79" s="8">
         <v>175</v>
       </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="10">
+      <c r="D79" s="7"/>
+      <c r="E79" s="8">
         <v>175</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
-        <v>42916</v>
+      <c r="A80" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B80" s="4"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="9">
+      <c r="C80" s="8"/>
+      <c r="D80" s="7">
         <v>175</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E80" s="8">
         <v>0</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1719,98 +1770,98 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
     </row>
     <row r="83" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="8" t="s">
+      <c r="C83" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
-        <v>42887</v>
+      <c r="A84" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="B84" s="4"/>
-      <c r="C84" s="10">
+      <c r="C84" s="8">
         <v>50</v>
       </c>
-      <c r="D84" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="10">
+      <c r="D84" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="8">
         <v>50</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="F84" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
-        <v>42916</v>
+      <c r="A85" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B85" s="4"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="9">
+      <c r="C85" s="8"/>
+      <c r="D85" s="7">
         <v>50</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E85" s="8">
         <v>0</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="F85" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
-        <v>42938</v>
+      <c r="A86" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="B86" s="4"/>
-      <c r="C86" s="10">
+      <c r="C86" s="8">
         <v>20</v>
       </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="10">
+      <c r="D86" s="7"/>
+      <c r="E86" s="8">
         <v>20</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="7" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A40:F40"/>
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A49:F49"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A64:F64"/>
     <mergeCell ref="A70:F70"/>
     <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18439DE6-E914-4AEF-9918-E6EE9047A30E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026EE217-9993-407E-B74F-5C07303F68DF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="33">
   <si>
     <t>Cash</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>6/17</t>
-  </si>
-  <si>
-    <t>7/22</t>
   </si>
 </sst>
 </file>
@@ -278,13 +275,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -624,14 +621,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -654,7 +651,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4"/>
@@ -670,7 +667,7 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="4"/>
@@ -684,7 +681,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="4"/>
@@ -698,7 +695,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="4"/>
@@ -712,7 +709,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="4"/>
@@ -726,7 +723,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="4"/>
@@ -740,7 +737,7 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="4"/>
@@ -754,7 +751,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="4"/>
@@ -768,7 +765,7 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="4"/>
@@ -782,7 +779,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="4"/>
@@ -796,7 +793,7 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="4"/>
@@ -818,14 +815,14 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -848,7 +845,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="4"/>
@@ -866,7 +863,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="4"/>
@@ -882,7 +879,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="4"/>
@@ -898,7 +895,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="4"/>
@@ -914,7 +911,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="4"/>
@@ -930,7 +927,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="4"/>
@@ -948,14 +945,14 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -978,7 +975,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="4"/>
@@ -996,7 +993,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="4"/>
@@ -1012,7 +1009,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="4"/>
@@ -1028,7 +1025,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4"/>
@@ -1044,7 +1041,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="4"/>
@@ -1060,7 +1057,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="4"/>
@@ -1078,14 +1075,14 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -1108,7 +1105,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="4"/>
@@ -1126,7 +1123,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="5"/>
@@ -1136,7 +1133,7 @@
       <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="5"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -1144,7 +1141,7 @@
       <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="5"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -1160,14 +1157,14 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -1190,7 +1187,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="4"/>
@@ -1206,7 +1203,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B43" s="4"/>
@@ -1222,7 +1219,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="4"/>
@@ -1238,7 +1235,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B45" s="4"/>
@@ -1254,7 +1251,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B46" s="4"/>
@@ -1270,7 +1267,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="4"/>
@@ -1294,14 +1291,14 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
     </row>
     <row r="50" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
@@ -1324,7 +1321,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B51" s="4"/>
@@ -1342,7 +1339,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B52" s="4"/>
@@ -1366,14 +1363,14 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
     </row>
     <row r="55" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
@@ -1396,7 +1393,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B56" s="4"/>
@@ -1412,7 +1409,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B57" s="4"/>
@@ -1428,7 +1425,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B58" s="4"/>
@@ -1444,7 +1441,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B59" s="4"/>
@@ -1460,7 +1457,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B60" s="4"/>
@@ -1476,7 +1473,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B61" s="4"/>
@@ -1492,7 +1489,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B62" s="4"/>
@@ -1516,14 +1513,14 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
     </row>
     <row r="65" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -1546,7 +1543,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B66" s="4"/>
@@ -1564,7 +1561,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B67" s="4"/>
@@ -1580,7 +1577,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B68" s="4"/>
@@ -1604,14 +1601,14 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
     </row>
     <row r="71" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
@@ -1634,7 +1631,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B72" s="4"/>
@@ -1650,7 +1647,7 @@
       <c r="F72" s="12"/>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B73" s="4"/>
@@ -1664,7 +1661,7 @@
       <c r="F73" s="12"/>
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B74" s="4"/>
@@ -1678,7 +1675,7 @@
       <c r="F74" s="12"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B75" s="4"/>
@@ -1700,14 +1697,14 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
     </row>
     <row r="78" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
@@ -1730,7 +1727,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B79" s="4"/>
@@ -1746,7 +1743,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B80" s="4"/>
@@ -1770,14 +1767,14 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
     </row>
     <row r="83" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
@@ -1800,7 +1797,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B84" s="4"/>
@@ -1818,7 +1815,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B85" s="4"/>
@@ -1833,35 +1830,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="8">
-        <v>20</v>
-      </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="8">
-        <v>20</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A40:F40"/>
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A49:F49"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A64:F64"/>
     <mergeCell ref="A70:F70"/>
     <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_A_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026EE217-9993-407E-B74F-5C07303F68DF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9E44F5-50BD-B24E-89B4-66A424316C5F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21520" windowHeight="14320" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="33">
   <si>
     <t>Cash</t>
   </si>
@@ -605,22 +604,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -630,7 +629,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -650,7 +649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
@@ -666,7 +665,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
@@ -680,7 +679,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
@@ -694,7 +693,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -708,7 +707,7 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
@@ -722,7 +721,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
@@ -736,7 +735,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
@@ -750,7 +749,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>22</v>
       </c>
@@ -764,7 +763,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -778,7 +777,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>24</v>
       </c>
@@ -792,7 +791,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
@@ -806,7 +805,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -814,7 +813,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>5</v>
       </c>
@@ -824,7 +823,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
@@ -844,7 +843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
@@ -862,7 +861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
@@ -878,7 +877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>21</v>
       </c>
@@ -894,7 +893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>28</v>
       </c>
@@ -910,7 +909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>29</v>
       </c>
@@ -926,17 +925,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>25</v>
-      </c>
+    <row r="22" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -944,7 +941,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>6</v>
       </c>
@@ -954,7 +951,7 @@
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>1</v>
       </c>
@@ -974,7 +971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>30</v>
       </c>
@@ -992,7 +989,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>18</v>
       </c>
@@ -1008,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>31</v>
       </c>
@@ -1024,7 +1021,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>32</v>
       </c>
@@ -1040,7 +1037,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>22</v>
       </c>
@@ -1056,17 +1053,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>25</v>
-      </c>
+    <row r="31" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
       <c r="B31" s="4"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1074,7 +1069,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>7</v>
       </c>
@@ -1084,7 +1079,7 @@
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
     </row>
-    <row r="34" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>1</v>
       </c>
@@ -1104,7 +1099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>16</v>
       </c>
@@ -1122,727 +1117,709 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>25</v>
-      </c>
+    <row r="36" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
       <c r="B36" s="5"/>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+    <row r="37" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-    </row>
-    <row r="41" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="7">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="8">
+        <v>1200</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="7">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="8" t="s">
-        <v>15</v>
+      <c r="C42" s="8">
+        <v>220</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F42" s="7">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="8">
-        <v>1200</v>
+        <v>175</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F43" s="7">
-        <v>2550</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="8">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F44" s="7">
-        <v>2330</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="8">
-        <v>175</v>
+        <v>700</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F45" s="7">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="8">
-        <v>50</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="7">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="8">
+        <v>700</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="8">
+        <v>700</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="8">
+      <c r="B50" s="4"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="7">
         <v>700</v>
       </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="7">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-    </row>
-    <row r="50" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="E50" s="8">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+    </row>
+    <row r="53" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="8">
-        <v>700</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="8">
-        <v>700</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="7">
-        <v>700</v>
-      </c>
-      <c r="E52" s="8">
-        <v>0</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-    </row>
-    <row r="55" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8">
+        <v>200</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8">
+        <v>250</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="7">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
       <c r="D56" s="8">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F56" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
       <c r="D57" s="8">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F57" s="7">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
       <c r="D58" s="8">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F58" s="7">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
       <c r="D59" s="8">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F59" s="7">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="8">
-        <v>750</v>
-      </c>
+      <c r="C60" s="7">
+        <v>3750</v>
+      </c>
+      <c r="D60" s="8"/>
       <c r="E60" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F60" s="7">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="8">
-        <v>1600</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="7">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+    </row>
+    <row r="63" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="7">
+        <v>600</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="8">
+        <v>600</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="7">
+        <v>600</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="8">
+        <v>1200</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="7">
-        <v>3750</v>
-      </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" s="7">
+      <c r="B66" s="4"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-    </row>
-    <row r="65" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="F66" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+    </row>
+    <row r="69" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B69" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="7">
-        <v>600</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="8">
-        <v>600</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="7">
-        <v>600</v>
-      </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="8">
-        <v>1200</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7">
-        <v>1200</v>
-      </c>
-      <c r="E68" s="8">
-        <v>0</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-    </row>
-    <row r="71" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="8">
+        <v>150</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="8">
+        <v>150</v>
+      </c>
+      <c r="F70" s="12"/>
+    </row>
+    <row r="71" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="8">
+        <v>40</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="8">
+        <v>190</v>
+      </c>
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="8">
-        <v>150</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D72" s="7"/>
       <c r="E72" s="8">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="F72" s="12"/>
     </row>
-    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B73" s="4"/>
-      <c r="C73" s="8">
-        <v>40</v>
-      </c>
-      <c r="D73" s="7"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="7">
+        <v>220</v>
+      </c>
       <c r="E73" s="8">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="F73" s="12"/>
     </row>
-    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="8">
-        <v>30</v>
-      </c>
-      <c r="D74" s="7"/>
-      <c r="E74" s="8">
-        <v>220</v>
-      </c>
-      <c r="F74" s="12"/>
-    </row>
-    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
+    <row r="74" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+    </row>
+    <row r="76" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="8">
+        <v>175</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="8">
+        <v>175</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="7">
-        <v>220</v>
-      </c>
-      <c r="E75" s="8">
+      <c r="B78" s="4"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="7">
+        <v>175</v>
+      </c>
+      <c r="E78" s="8">
         <v>0</v>
       </c>
-      <c r="F75" s="12"/>
-    </row>
-    <row r="76" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-    </row>
-    <row r="78" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+      <c r="F78" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+    </row>
+    <row r="81" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B81" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="8">
-        <v>175</v>
-      </c>
-      <c r="D79" s="7"/>
-      <c r="E79" s="8">
-        <v>175</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
+      <c r="C81" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="8">
+        <v>50</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="8">
+        <v>50</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="7">
-        <v>175</v>
-      </c>
-      <c r="E80" s="8">
+      <c r="B83" s="4"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="7">
+        <v>50</v>
+      </c>
+      <c r="E83" s="8">
         <v>0</v>
       </c>
-      <c r="F80" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-    </row>
-    <row r="83" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="8">
-        <v>50</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="8">
-        <v>50</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="7">
-        <v>50</v>
-      </c>
-      <c r="E85" s="8">
-        <v>0</v>
-      </c>
-      <c r="F85" s="7" t="s">
+      <c r="F83" s="7" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A77:F77"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A75:F75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
